--- a/medicine/Psychotrope/Calitor/Calitor.xlsx
+++ b/medicine/Psychotrope/Calitor/Calitor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  calitor est un cépage de France de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calitor est un cépage de vigne assez peu répandu en France. C'est un vieux cépage provençal. Son nom vient probablement du provençal col (pédoncle) et de tor (tordu) en raison de son pédoncle coudé.
 Il a été classé recommandé dans les départements du Var et du Vaucluse et autorisé dans l'Ardèche, la Drôme, le Gard, l'Hérault et les Pyrénées-Orientales. Il occupe moins de 200 hectares. Il fait partie de l'encépagement des appellations des Côtes de Provence et de Tavel.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, rosées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont assez grosses et les baies sont de taille moyenne à grosse. La grappe est cylindro-conique, ailée et avec un pédoncle coudé. Le cépage est vigoureux et il produit beaucoup. Il est sensible au mildiou et à la pourriture grise.
 Le calitor n'a pas fait l'objet de sélection clonale.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calitor est aussi connu sous les noms suivants :
 anglas
